--- a/paraTreinarApache.xlsx
+++ b/paraTreinarApache.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9225b74fb6351460/Área de Trabalho/GitHubs/Java/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\Sptech\Pesquisa e Inovação\repositorio\dataryzerB\0DR\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{1DB08B36-E248-4DF8-8096-F5103189D435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B7B5E1-3F9E-4E3F-A6B1-B72E8F6B5FD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4993A7E-C4F9-47FF-BFF0-75836E5BE1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4841F92C-0C94-478B-ADD5-2F7AAA646A76}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11629" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11629" uniqueCount="2055">
   <si>
     <t>_id</t>
   </si>
@@ -6212,6 +6212,9 @@
   </si>
   <si>
     <t>610911139</t>
+  </si>
+  <si>
+    <t>RGE SUL testando testando testando testando testando testando testando testando testando testando testando testando testando testando testando testando</t>
   </si>
 </sst>
 </file>
@@ -6263,13 +6266,22 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6287,16 +6299,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6309,10 +6312,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6348,24 +6347,24 @@
   <autoFilter ref="A1:S1291" xr:uid="{4372E301-26DB-413A-AAAA-941CC96BAC64}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{39DFE163-DAC8-416E-B5EE-4F02AFBBCA4D}" uniqueName="1" name="_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{26DFADCA-87A5-4DC2-929E-44BBC10C8961}" uniqueName="2" name="DatGeracaoConjuntoDados" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{26DFADCA-87A5-4DC2-929E-44BBC10C8961}" uniqueName="2" name="DatGeracaoConjuntoDados" queryTableFieldId="2" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{92A84F58-6D12-4432-B416-56C305999854}" uniqueName="3" name="IdeConjuntoUnidadeConsumidora" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4425CA4F-6C50-4E56-88DB-5547AE13D713}" uniqueName="4" name="DscConjuntoUnidadeConsumidora" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{7A64C2C6-BB14-4232-9F9A-135FC2532EBC}" uniqueName="5" name="DscAlimentadorSubestacao" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4DAD8B24-6646-4F32-A13B-CF5BBED33B5F}" uniqueName="6" name="DscSubestacaoDistribuicao" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D6EB3B86-E6A7-414D-8F12-62FCB06E2700}" uniqueName="7" name="NumOrdemInterrupcao" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{2004D6E9-4E06-4CA9-8B8D-82261B6CC131}" uniqueName="8" name="DscTipoInterrupcao" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4425CA4F-6C50-4E56-88DB-5547AE13D713}" uniqueName="4" name="DscConjuntoUnidadeConsumidora" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{7A64C2C6-BB14-4232-9F9A-135FC2532EBC}" uniqueName="5" name="DscAlimentadorSubestacao" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{4DAD8B24-6646-4F32-A13B-CF5BBED33B5F}" uniqueName="6" name="DscSubestacaoDistribuicao" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D6EB3B86-E6A7-414D-8F12-62FCB06E2700}" uniqueName="7" name="NumOrdemInterrupcao" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{2004D6E9-4E06-4CA9-8B8D-82261B6CC131}" uniqueName="8" name="DscTipoInterrupcao" queryTableFieldId="8" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{1EDFAD4B-4134-48CD-973F-6F486C55CAA9}" uniqueName="9" name="IdeMotivoInterrupcao" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{5B3FE6E0-845B-4B99-A6C9-98564ADCACB4}" uniqueName="10" name="DatInicioInterrupcao" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{8C980AE5-AFEA-4113-B877-774AA773B06D}" uniqueName="11" name="DatFimInterrupcao" queryTableFieldId="11" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{3ACAF881-BBB3-404A-B3B4-ADD302C8F1DB}" uniqueName="12" name="DscFatoGeradorInterrupcao" queryTableFieldId="12" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{5B3FE6E0-845B-4B99-A6C9-98564ADCACB4}" uniqueName="10" name="DatInicioInterrupcao" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{8C980AE5-AFEA-4113-B877-774AA773B06D}" uniqueName="11" name="DatFimInterrupcao" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{3ACAF881-BBB3-404A-B3B4-ADD302C8F1DB}" uniqueName="12" name="DscFatoGeradorInterrupcao" queryTableFieldId="12" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{38780D57-EC4D-491C-82CE-D4B8EBE30EEE}" uniqueName="13" name="NumNivelTensao" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{A428366C-3906-4D7E-B459-E929575D5F57}" uniqueName="14" name="NumUnidadeConsumidora" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{20082A74-E256-406A-81D4-15FCF048C89C}" uniqueName="15" name="NumConsumidorConjunto" queryTableFieldId="15"/>
     <tableColumn id="16" xr3:uid="{9F44E654-9CA9-4B54-9B0E-D7B0B33CA4F4}" uniqueName="16" name="NumAno" queryTableFieldId="16"/>
-    <tableColumn id="17" xr3:uid="{AAA4A411-E999-408F-B47C-383C2DC87509}" uniqueName="17" name="NomAgenteRegulado" queryTableFieldId="17" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{BB6BE684-A9EB-4749-ADAE-E69B71279D80}" uniqueName="18" name="SigAgente" queryTableFieldId="18" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{68201CD9-5F9A-4796-91DA-FBE89DBD893C}" uniqueName="19" name="NumCPFCNPJ" queryTableFieldId="19" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{AAA4A411-E999-408F-B47C-383C2DC87509}" uniqueName="17" name="NomAgenteRegulado" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{BB6BE684-A9EB-4749-ADAE-E69B71279D80}" uniqueName="18" name="SigAgente" queryTableFieldId="18" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{68201CD9-5F9A-4796-91DA-FBE89DBD893C}" uniqueName="19" name="NumCPFCNPJ" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6690,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5094878B-B7D2-47F1-AB77-2FBDC45FACC0}">
   <dimension ref="A1:S1291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6829,7 +6828,7 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>2054</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
